--- a/Data/pyautogui/Food Palace/gui/resources/itemChecker/itemMissing.xlsx
+++ b/Data/pyautogui/Food Palace/gui/resources/itemChecker/itemMissing.xlsx
@@ -5682,10 +5682,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A65"/>
+  <dimension ref="A2:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5695,322 +5695,97 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>888112081108</v>
+        <v>6291106796919</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>80177616</v>
+        <v>6291106798838</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>5900951000270</v>
+        <v>6290360452104</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>5000159471688</v>
+        <v>6290360450100</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>8410223606705</v>
+        <v>6925912006183</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>8410223602912</v>
+        <v>6291105949910</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>6942836722180</v>
+        <v>6290360450650</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>753854500065</v>
+        <v>6290360451930</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>3453664182266</v>
+        <v>6291108330494</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>8690828120299</v>
+        <v>6291108332801</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>4900001009988</v>
+        <v>6290360450773</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>6253357900897</v>
+        <v>6290360450070</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>6253357900897</v>
+        <v>5290360450872</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>798190233277</v>
+        <v>6290360451008</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>705632061046</v>
+        <v>6290360451589</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>9120008998565</v>
+        <v>6291108335246</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>6291016223239</v>
+        <v>6291108335253</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>6162008401129</v>
+        <v>6290360460710</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>8010000222014</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>3855149849624</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>1950031222966</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>6102014019147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>6901001231025</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>6221064031111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>6970254435252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>6921136084839</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>998887776623</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>843670216872</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>5066179767132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>8010000305137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>8010000290891</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>8010000235052</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>8010000312920</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>8010000228603</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>8010000243019</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>8010000243019</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>8718951452978</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>6281006534599</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>8888202073020</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>9740020180525</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>5011136700189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>5010287377004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>6221155115041</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>3193504112786</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>6291105902595</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>6291101711313</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>806360751008</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <v>8010000299344</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <v>6939944300942</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <v>8010000220331</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
-        <v>8690637504105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
-        <v>6281006872493</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
-        <v>8690637506222</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
-        <v>6291003000010</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
-        <v>8001841014968</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
-        <v>8044197014404</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
-        <v>4990000014618</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
-        <v>5011053023323</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <v>5011053023545</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
-        <v>5011053022555</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
-        <v>5011053022586</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
-        <v>5011053023606</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
-        <v>5011053023637</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
-        <v>5011053023576</v>
+        <v>6291106794625</v>
       </c>
     </row>
   </sheetData>
